--- a/Notes_Requirements.xlsx
+++ b/Notes_Requirements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lgarzia\Documents\GitHub\chart_me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C4CE58F-A147-4C73-AC96-8456E8992FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15D773F-4F2D-4F07-84AD-E86ABC7D44BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{44FFE843-E872-4E1B-A325-C26FD66EB1D6}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{44FFE843-E872-4E1B-A325-C26FD66EB1D6}"/>
   </bookViews>
   <sheets>
     <sheet name="rendering_logic" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="57">
   <si>
     <t>4 is 3 + facet by</t>
   </si>
@@ -202,6 +202,9 @@
   </si>
   <si>
     <t>Big Idea - VZ_QL</t>
+  </si>
+  <si>
+    <t>BOTH|Not Pre-Aggregated</t>
   </si>
 </sst>
 </file>
@@ -752,7 +755,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57A4F3F-90FB-4552-B7D7-F170377508E2}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -936,7 +941,7 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>16</v>
